--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BIO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BIO_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -971,6 +971,9 @@
     <t>B3, C2, C3, F3</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
   <si>
@@ -993,6 +996,27 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Nectar 4e editie 4vwo: H2 Cel en leven.</t>
+  </si>
+  <si>
+    <t>Nectar 4e editie 4vwo: H2 Cel en leven + H3 Wetenschappelijk onderzoek.</t>
+  </si>
+  <si>
+    <t>Nectar 4e editie 4vwo: H4 Voortplanting.</t>
+  </si>
+  <si>
+    <t>Nectar 4e editie 4vwo: H4 Voortplanting + H1 Gedrag.</t>
+  </si>
+  <si>
+    <t>Nectar 4e editie 4vwo: H5 Erfelijkheid + H7 Evolutie.</t>
+  </si>
+  <si>
+    <t>Uitgebreide ecologieopdracht waarin de lesstof in Nectar 4e editie 4vwo: H6 Soorten en Populaties + H8 Kenmerken van ecosystemen praktisch wordt toegepast.</t>
+  </si>
+  <si>
+    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
   </si>
   <si>
     <t>Hoofdstuk 4: Cel en leven</t>
@@ -1032,6 +1056,9 @@
   </si>
   <si>
     <t>B2, B4, B6, B7</t>
+  </si>
+  <si>
+    <t>Praktische opdrachten 1 = P1. Periode: september 2021 - juni 2022. Toetsing van de in het examenprogramma genoemde praktische opdrachten, gecombineerd met de theorie, te noemen "practicum" en het uitvoeren van het volgende handelingsgedeelte: microscopiseren, verslag maken of werkstuk (in overleg), omgaan met biologische informatie en meningsvorming, omgaan met feiten, meningen en vooronderstellingen, het vormen van een beargumenteerd standpunt, informatieverwerking m.b.v. een computer.</t>
   </si>
   <si>
     <t>Nectar Atheneum 6: Hoofdstuk 17 Stedelijke ecosystemen, Hoofdstuk 18 Wereldwijde kringlopen. Nectar Atheneum 4: Hoofdstuk 2 Soorten en populaties, Hoofdstuk 3 Ecosystemen</t>
@@ -2247,7 +2274,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2601,7 +2628,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2973,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -2992,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3067,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -3086,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3161,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -3180,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3255,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3274,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3554,7 +3581,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -3678,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3695,10 +3722,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3770,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3787,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3862,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3879,10 +3906,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4565,7 +4592,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4919,7 +4946,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5946,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5963,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6038,7 +6065,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6055,10 +6082,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6130,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6147,10 +6174,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -6479,7 +6506,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -7364,7 +7391,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7753,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -7845,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -7937,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -8029,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>
@@ -9650,7 +9677,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10039,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -10131,7 +10158,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -10223,7 +10250,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -10315,7 +10342,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>
@@ -11436,7 +11463,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11611,7 +11638,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>84</v>
@@ -11711,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11756,7 +11783,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11772,7 +11799,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11908,7 +11935,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>88</v>
@@ -11980,7 +12007,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2">
         <v>925</v>
@@ -12009,7 +12036,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>90</v>
@@ -13728,7 +13755,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13903,7 +13930,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>84</v>
@@ -13999,11 +14026,9 @@
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="46">
-        <v>1</v>
-      </c>
+      <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14036,7 +14061,7 @@
       </c>
       <c r="Y7" s="7">
         <f>IF(AND($N7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="7">
         <f>IF(AND(ISBLANK($N7),$M7=instellingen!$I$3),1,0)</f>
@@ -14048,7 +14073,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -14064,7 +14089,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -14200,7 +14225,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>88</v>
@@ -14272,7 +14297,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>266</v>
@@ -14301,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>90</v>
@@ -14527,7 +14552,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -14658,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14672,13 +14697,13 @@
         <v>8</v>
       </c>
       <c r="N18" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14750,7 +14775,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14764,13 +14789,13 @@
         <v>8</v>
       </c>
       <c r="N19" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14842,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14856,13 +14881,13 @@
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16552,7 +16577,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16924,7 +16949,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16941,10 +16966,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17016,7 +17041,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17033,10 +17058,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17108,7 +17133,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17125,10 +17150,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17487,7 +17512,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -18320,7 +18345,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18466,7 +18491,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>933</v>
@@ -18476,24 +18501,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18538,7 +18563,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18554,7 +18579,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18572,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18582,14 +18607,14 @@
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18634,7 +18659,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18650,7 +18675,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18668,24 +18693,24 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18730,7 +18755,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18746,7 +18771,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18762,25 +18787,27 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="45">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18825,7 +18852,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -18841,7 +18868,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -18850,7 +18877,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>937</v>
@@ -18860,10 +18887,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>7</v>
@@ -18877,7 +18904,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18922,7 +18949,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -18938,7 +18965,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -18957,24 +18984,22 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="45">
-        <v>50</v>
-      </c>
+      <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -19019,7 +19044,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -19035,7 +19060,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -19108,7 +19133,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>106</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -20604,7 +20631,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20750,7 +20777,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>270</v>
@@ -20760,7 +20787,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20777,7 +20804,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20822,7 +20849,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -20838,7 +20865,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -20856,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20873,7 +20900,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20918,7 +20945,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -20934,7 +20961,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -20952,7 +20979,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -20969,7 +20996,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21014,7 +21041,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -21030,7 +21057,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -21049,7 +21076,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -21064,7 +21091,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21109,7 +21136,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -21125,7 +21152,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -21134,7 +21161,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>274</v>
@@ -21144,7 +21171,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -21161,7 +21188,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21206,7 +21233,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -21222,7 +21249,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -21241,7 +21268,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -21258,7 +21285,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -21303,7 +21330,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -21319,7 +21346,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -21393,7 +21420,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -21524,7 +21551,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -21543,10 +21570,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21618,7 +21645,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -21637,10 +21664,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21712,7 +21739,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -21731,10 +21758,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21806,7 +21833,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21825,10 +21852,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -21892,24 +21919,32 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1108</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="45">
+        <v>3</v>
+      </c>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="46">
+        <v>3</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -21966,11 +22001,11 @@
       </c>
       <c r="AE22" s="7">
         <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -22104,7 +22139,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>106</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BIO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BIO_OPEN.xlsx
@@ -956,6 +956,9 @@
     <t>Hoofdstuk 5 Voeding en energie Hoofdstuk 6 Voeding en vertering</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>A10, A11, A12, A13 t/m A16</t>
   </si>
   <si>
@@ -969,9 +972,6 @@
   </si>
   <si>
     <t>B3, C2, C3, F3</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11738,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11837,7 +11837,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11916,7 +11916,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11938,7 +11938,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2">
         <v>925</v>
@@ -12017,7 +12017,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -12039,7 +12039,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14127,7 +14127,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14206,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -14228,7 +14228,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>266</v>
@@ -14307,7 +14307,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -14329,7 +14329,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18614,7 +18614,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>937</v>
@@ -18904,7 +18904,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>274</v>
@@ -21188,7 +21188,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
